--- a/BAZ Ar-Raudhah 2023.xlsx
+++ b/BAZ Ar-Raudhah 2023.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>NO.</t>
   </si>
@@ -66,17 +67,272 @@
   </si>
   <si>
     <t>Yatim Piatu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>Daftar Nama Penerima Dzakat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Golongan</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Zainur</t>
+  </si>
+  <si>
+    <t>Zaini Hasyim</t>
+  </si>
+  <si>
+    <t>Pa'de Ngageni</t>
+  </si>
+  <si>
+    <t>Pak Warsito</t>
+  </si>
+  <si>
+    <t>Pak Ibnu</t>
+  </si>
+  <si>
+    <t>Sariono</t>
+  </si>
+  <si>
+    <t>Suwarni</t>
+  </si>
+  <si>
+    <t>Deri Farel</t>
+  </si>
+  <si>
+    <t>Pak Agus Tebu</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>Alim Mustofa</t>
+  </si>
+  <si>
+    <t>Pak Musa Security</t>
+  </si>
+  <si>
+    <t>Bogin</t>
+  </si>
+  <si>
+    <t>Jumari</t>
+  </si>
+  <si>
+    <t>Wardi</t>
+  </si>
+  <si>
+    <t>Nur Salim</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Priyo</t>
+  </si>
+  <si>
+    <t>Pak Yahmad</t>
+  </si>
+  <si>
+    <t>Sudah Dilaporkan ke BAZNAS</t>
+  </si>
+  <si>
+    <t>Bu Ida Wahyuni</t>
+  </si>
+  <si>
+    <t>Bu Ulfa</t>
+  </si>
+  <si>
+    <t>Bu Yetri</t>
+  </si>
+  <si>
+    <t>Bu Muhayati</t>
+  </si>
+  <si>
+    <t>Pak Muhdirin</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Iqbal</t>
+  </si>
+  <si>
+    <t>Umar</t>
+  </si>
+  <si>
+    <t>Sinta</t>
+  </si>
+  <si>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Muas</t>
+  </si>
+  <si>
+    <t>Laira</t>
+  </si>
+  <si>
+    <t>Desvi</t>
+  </si>
+  <si>
+    <t>Zidan</t>
+  </si>
+  <si>
+    <t>Gilang</t>
+  </si>
+  <si>
+    <t>Miftah</t>
+  </si>
+  <si>
+    <t>Noval</t>
+  </si>
+  <si>
+    <t>Nabila</t>
+  </si>
+  <si>
+    <t>Atika</t>
+  </si>
+  <si>
+    <t>Assyifa</t>
+  </si>
+  <si>
+    <t>Wija</t>
+  </si>
+  <si>
+    <t>Bagas</t>
+  </si>
+  <si>
+    <t>Tika</t>
+  </si>
+  <si>
+    <t>Angga</t>
+  </si>
+  <si>
+    <t>Nayla</t>
+  </si>
+  <si>
+    <t>Nuril</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>I17</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>I09</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>Miskin</t>
+  </si>
+  <si>
+    <t>Fisabilillah</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Asbar</t>
+  </si>
+  <si>
+    <t>Tumiran</t>
+  </si>
+  <si>
+    <t>Ramdhoni</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Ateb</t>
+  </si>
+  <si>
+    <t>Amil</t>
+  </si>
+  <si>
+    <t>Mu'alaf</t>
+  </si>
+  <si>
+    <t>J16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$IDR]\ * #,##0.00_);_([$IDR]\ * \(#,##0.00\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +355,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +425,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,8 +541,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -264,8 +561,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
@@ -343,7 +643,44 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,8 +759,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -432,6 +775,9 @@
     <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="11" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -710,11 +1056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +1069,7 @@
     <col min="2" max="2" width="17" style="4" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="18.109375" style="11" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="13" customWidth="1"/>
@@ -733,69 +1079,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="42"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
@@ -1651,10 +1997,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="25">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="J39" s="25"/>
       <c r="K39" s="29">
         <v>3</v>
       </c>
@@ -1689,25 +2032,33 @@
       <c r="A41" s="19">
         <v>38</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="20">
+        <v>150000</v>
+      </c>
       <c r="C41" s="18"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="21">
+        <v>50000</v>
+      </c>
       <c r="G41" s="22"/>
       <c r="H41" s="23"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K41" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <v>39</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20">
+        <v>250000</v>
+      </c>
       <c r="C42" s="18"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -1717,519 +2068,675 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="29"/>
+        <v>250000</v>
+      </c>
+      <c r="K42" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>40</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20">
+        <v>30000</v>
+      </c>
       <c r="C43" s="18"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="G43" s="22">
+        <v>20000</v>
+      </c>
       <c r="H43" s="23"/>
       <c r="I43" s="24"/>
       <c r="J43" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="29"/>
+        <v>50000</v>
+      </c>
+      <c r="K43" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>41</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20">
+        <v>130000</v>
+      </c>
       <c r="C44" s="18"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="21">
+        <v>20000</v>
+      </c>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="24"/>
       <c r="J44" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K44" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>42</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="20">
+        <v>140000</v>
+      </c>
       <c r="C45" s="18"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="F45" s="21">
+        <v>60000</v>
+      </c>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="24"/>
       <c r="J45" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K45" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <v>43</v>
       </c>
       <c r="B46" s="20"/>
-      <c r="C46" s="18"/>
+      <c r="C46" s="18">
+        <v>12</v>
+      </c>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="29"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>44</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20">
+        <v>97500</v>
+      </c>
       <c r="C47" s="18"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="21">
+        <v>2500</v>
+      </c>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" s="24"/>
       <c r="J47" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="29"/>
+        <v>100000</v>
+      </c>
+      <c r="K47" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
         <v>45</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20">
+        <v>200000</v>
+      </c>
       <c r="C48" s="18"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
+      <c r="F48" s="21">
+        <v>70000</v>
+      </c>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="24"/>
       <c r="J48" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="29"/>
+        <v>270000</v>
+      </c>
+      <c r="K48" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>46</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20">
+        <v>130000</v>
+      </c>
       <c r="C49" s="18"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
+      <c r="I49" s="24">
+        <v>20000</v>
+      </c>
       <c r="J49" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K49" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="19">
         <v>47</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20">
+        <v>175000</v>
+      </c>
       <c r="C50" s="18"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
+      <c r="F50" s="21">
+        <v>25000</v>
+      </c>
       <c r="G50" s="22"/>
       <c r="H50" s="23"/>
       <c r="I50" s="24"/>
       <c r="J50" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K50" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="19">
         <v>48</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20">
+        <v>150000</v>
+      </c>
       <c r="C51" s="18"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="20">
+        <v>40000</v>
+      </c>
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
       <c r="I51" s="24"/>
       <c r="J51" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="29"/>
+        <v>190000</v>
+      </c>
+      <c r="K51" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <v>49</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20">
+        <v>65000</v>
+      </c>
       <c r="C52" s="18"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
+      <c r="I52" s="24">
+        <v>35000</v>
+      </c>
       <c r="J52" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="29"/>
+        <v>100000</v>
+      </c>
+      <c r="K52" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <v>50</v>
       </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="18"/>
+      <c r="C53" s="18">
+        <v>5</v>
+      </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="24"/>
-      <c r="J53" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="29"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <v>51</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="18"/>
+      <c r="C54" s="18">
+        <v>15</v>
+      </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="29"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <v>52</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="20">
+        <v>120000</v>
+      </c>
       <c r="C55" s="18"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
+      <c r="F55" s="21">
+        <v>80000</v>
+      </c>
       <c r="G55" s="22"/>
       <c r="H55" s="23"/>
       <c r="I55" s="24"/>
       <c r="J55" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K55" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="19">
         <v>53</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20">
+        <v>140000</v>
+      </c>
       <c r="C56" s="18"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
+      <c r="G56" s="22">
+        <v>60000</v>
+      </c>
       <c r="H56" s="23"/>
       <c r="I56" s="24"/>
       <c r="J56" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K56" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
         <v>54</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20">
+        <v>140000</v>
+      </c>
       <c r="C57" s="18"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
+      <c r="G57" s="22">
+        <v>100000</v>
+      </c>
       <c r="H57" s="23"/>
-      <c r="I57" s="24"/>
+      <c r="I57" s="24">
+        <v>60000</v>
+      </c>
       <c r="J57" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="29"/>
+        <v>300000</v>
+      </c>
+      <c r="K57" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
         <v>55</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="20">
+        <v>32500</v>
+      </c>
       <c r="C58" s="18"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
+      <c r="E58" s="20">
+        <v>200000</v>
+      </c>
       <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="G58" s="22">
+        <v>27500</v>
+      </c>
       <c r="H58" s="23"/>
       <c r="I58" s="24"/>
       <c r="J58" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="29"/>
+        <v>260000</v>
+      </c>
+      <c r="K58" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="19">
         <v>56</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20">
+        <v>105000</v>
+      </c>
       <c r="C59" s="18"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
+      <c r="F59" s="21">
+        <v>25000</v>
+      </c>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="24"/>
       <c r="J59" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="29"/>
+        <v>130000</v>
+      </c>
+      <c r="K59" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="19">
         <v>57</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20">
+        <v>150000</v>
+      </c>
       <c r="C60" s="18"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
+      <c r="F60" s="21">
+        <v>50000</v>
+      </c>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="24"/>
       <c r="J60" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K60" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19">
         <v>58</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20">
+        <v>300000</v>
+      </c>
       <c r="C61" s="18"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
+      <c r="F61" s="21">
+        <v>500000</v>
+      </c>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="24"/>
       <c r="J61" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="29"/>
+        <v>800000</v>
+      </c>
+      <c r="K61" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19">
         <v>59</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20">
+        <v>140000</v>
+      </c>
       <c r="C62" s="18"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="21">
+        <v>80000</v>
+      </c>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="24"/>
       <c r="J62" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="29"/>
+        <v>220000</v>
+      </c>
+      <c r="K62" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19">
         <v>60</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20">
+        <v>140000</v>
+      </c>
       <c r="C63" s="18"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
+      <c r="F63" s="21">
+        <v>10000</v>
+      </c>
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="24"/>
       <c r="J63" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K63" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19">
         <v>61</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20">
+        <v>162500</v>
+      </c>
       <c r="C64" s="18"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
+      <c r="F64" s="21">
+        <v>37500</v>
+      </c>
       <c r="G64" s="22"/>
       <c r="H64" s="23"/>
       <c r="I64" s="24"/>
       <c r="J64" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K64" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19">
         <v>62</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20">
+        <v>100000</v>
+      </c>
       <c r="C65" s="18"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
+      <c r="F65" s="21">
+        <v>50000</v>
+      </c>
       <c r="G65" s="22"/>
       <c r="H65" s="23"/>
       <c r="I65" s="24"/>
       <c r="J65" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K65" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19">
         <v>63</v>
       </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="18"/>
+      <c r="C66" s="18">
+        <v>5</v>
+      </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="21"/>
       <c r="G66" s="22"/>
       <c r="H66" s="23"/>
       <c r="I66" s="24"/>
-      <c r="J66" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="29"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19">
         <v>64</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20">
+        <v>140000</v>
+      </c>
       <c r="C67" s="18"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
-      <c r="F67" s="21"/>
+      <c r="F67" s="21">
+        <v>30000</v>
+      </c>
       <c r="G67" s="22"/>
       <c r="H67" s="23"/>
       <c r="I67" s="24"/>
       <c r="J67" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="29"/>
+        <v>170000</v>
+      </c>
+      <c r="K67" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="19">
         <v>65</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20">
+        <v>175000</v>
+      </c>
       <c r="C68" s="18"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
+      <c r="F68" s="21">
+        <v>25000</v>
+      </c>
       <c r="G68" s="22"/>
       <c r="H68" s="23"/>
       <c r="I68" s="24"/>
       <c r="J68" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K68" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="19">
         <v>66</v>
       </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="18"/>
+      <c r="C69" s="18">
+        <v>15</v>
+      </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
+      <c r="F69" s="21">
+        <v>20000</v>
+      </c>
       <c r="G69" s="22"/>
       <c r="H69" s="23"/>
       <c r="I69" s="24"/>
       <c r="J69" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="29"/>
+        <f>SUM(F69:I69)</f>
+        <v>20000</v>
+      </c>
+      <c r="K69" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="19">
         <v>67</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20">
+        <v>120000</v>
+      </c>
       <c r="C70" s="18"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
+      <c r="F70" s="21">
+        <v>30000</v>
+      </c>
       <c r="G70" s="22"/>
       <c r="H70" s="23"/>
       <c r="I70" s="24"/>
       <c r="J70" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K70" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="19">
         <v>68</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20">
+        <v>140000</v>
+      </c>
       <c r="C71" s="18"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
@@ -2239,15 +2746,19 @@
       <c r="I71" s="24"/>
       <c r="J71" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="29"/>
+        <v>140000</v>
+      </c>
+      <c r="K71" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="19">
         <v>69</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20">
+        <v>250000</v>
+      </c>
       <c r="C72" s="18"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
@@ -2257,141 +2768,191 @@
       <c r="I72" s="24"/>
       <c r="J72" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="29"/>
+        <v>250000</v>
+      </c>
+      <c r="K72" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19">
         <v>70</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20">
+        <v>90000</v>
+      </c>
       <c r="C73" s="18"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
+      <c r="G73" s="22">
+        <v>10000</v>
+      </c>
       <c r="H73" s="23"/>
       <c r="I73" s="24"/>
       <c r="J73" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="29"/>
+        <v>100000</v>
+      </c>
+      <c r="K73" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="19">
         <v>71</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20">
+        <v>150000</v>
+      </c>
       <c r="C74" s="18"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
+      <c r="G74" s="22">
+        <v>50000</v>
+      </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="24"/>
+      <c r="I74" s="24">
+        <v>20000</v>
+      </c>
       <c r="J74" s="25">
         <f t="shared" ref="J74:J137" si="3">SUM(B74:I74)</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="29"/>
+        <v>220000</v>
+      </c>
+      <c r="K74" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="19">
         <v>72</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20">
+        <v>60000</v>
+      </c>
       <c r="C75" s="18"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
+      <c r="G75" s="22">
+        <v>10000</v>
+      </c>
       <c r="H75" s="23"/>
       <c r="I75" s="24"/>
       <c r="J75" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="29"/>
+        <v>70000</v>
+      </c>
+      <c r="K75" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="19">
         <v>73</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20">
+        <v>130000</v>
+      </c>
       <c r="C76" s="18"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
+      <c r="F76" s="21">
+        <v>10000</v>
+      </c>
       <c r="G76" s="22"/>
       <c r="H76" s="23"/>
       <c r="I76" s="24"/>
       <c r="J76" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="29"/>
+        <v>140000</v>
+      </c>
+      <c r="K76" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="19">
         <v>74</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20">
+        <v>130000</v>
+      </c>
       <c r="C77" s="18"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
+      <c r="G77" s="22">
+        <v>20000</v>
+      </c>
       <c r="H77" s="23"/>
       <c r="I77" s="24"/>
       <c r="J77" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K77" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="19">
         <v>75</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20">
+        <v>70000</v>
+      </c>
       <c r="C78" s="18"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
+      <c r="F78" s="21">
+        <v>30000</v>
+      </c>
       <c r="G78" s="22"/>
       <c r="H78" s="23"/>
       <c r="I78" s="24"/>
       <c r="J78" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="29"/>
+        <v>100000</v>
+      </c>
+      <c r="K78" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="19">
         <v>76</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20">
+        <v>120000</v>
+      </c>
       <c r="C79" s="18"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="22"/>
+      <c r="G79" s="22">
+        <v>15000</v>
+      </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="24"/>
+      <c r="I79" s="24">
+        <v>15000</v>
+      </c>
       <c r="J79" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K79" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="19">
         <v>77</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20">
+        <v>150000</v>
+      </c>
       <c r="C80" s="18"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
@@ -2401,15 +2962,19 @@
       <c r="I80" s="24"/>
       <c r="J80" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="29"/>
-    </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150000</v>
+      </c>
+      <c r="K80" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="19">
         <v>78</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20">
+        <v>200000</v>
+      </c>
       <c r="C81" s="18"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
@@ -2419,33 +2984,48 @@
       <c r="I81" s="24"/>
       <c r="J81" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="29"/>
-    </row>
-    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="19">
+        <v>200000</v>
+      </c>
+      <c r="K81" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="49">
         <v>79</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="25">
+      <c r="B82" s="50">
+        <v>105000</v>
+      </c>
+      <c r="C82" s="49"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="51">
+        <v>20000</v>
+      </c>
+      <c r="G82" s="50">
+        <v>25000</v>
+      </c>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="29"/>
-    </row>
-    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150000</v>
+      </c>
+      <c r="K82" s="49">
+        <v>3</v>
+      </c>
+      <c r="L82" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="19">
         <v>80</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20">
+        <v>50000</v>
+      </c>
       <c r="C83" s="18"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
@@ -2455,15 +3035,19 @@
       <c r="I83" s="24"/>
       <c r="J83" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="29"/>
-    </row>
-    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50000</v>
+      </c>
+      <c r="K83" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="19">
         <v>81</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20">
+        <v>105000</v>
+      </c>
       <c r="C84" s="18"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -2473,123 +3057,162 @@
       <c r="I84" s="24"/>
       <c r="J84" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="29"/>
-    </row>
-    <row r="85" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105000</v>
+      </c>
+      <c r="K84" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="19">
         <v>82</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="18"/>
+      <c r="C85" s="18">
+        <v>10</v>
+      </c>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="21"/>
       <c r="G85" s="22"/>
       <c r="H85" s="23"/>
       <c r="I85" s="24"/>
-      <c r="J85" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="29"/>
-    </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J85" s="25"/>
+      <c r="K85" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19">
         <v>83</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20">
+        <v>120000</v>
+      </c>
       <c r="C86" s="18"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G86" s="22">
+        <v>15000</v>
+      </c>
       <c r="H86" s="23"/>
       <c r="I86" s="24"/>
       <c r="J86" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="29"/>
-    </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="19">
+        <v>150000</v>
+      </c>
+      <c r="K86" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="49">
         <v>84</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="25">
+      <c r="B87" s="50">
+        <v>130000</v>
+      </c>
+      <c r="C87" s="49"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="50">
+        <v>20000</v>
+      </c>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="29"/>
-    </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150000</v>
+      </c>
+      <c r="K87" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="19">
         <v>85</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20">
+        <v>120000</v>
+      </c>
       <c r="C88" s="18"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
+      <c r="F88" s="21">
+        <v>30000</v>
+      </c>
       <c r="G88" s="22"/>
       <c r="H88" s="23"/>
       <c r="I88" s="24"/>
       <c r="J88" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="29"/>
-    </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150000</v>
+      </c>
+      <c r="K88" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="19">
         <v>86</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="20">
+        <v>70000</v>
+      </c>
       <c r="C89" s="18"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="22"/>
+      <c r="F89" s="21">
+        <v>30000</v>
+      </c>
+      <c r="G89" s="22">
+        <v>50000</v>
+      </c>
       <c r="H89" s="23"/>
       <c r="I89" s="24"/>
       <c r="J89" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="29"/>
-    </row>
-    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150000</v>
+      </c>
+      <c r="K89" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="19">
         <v>87</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20">
+        <v>210000</v>
+      </c>
       <c r="C90" s="18"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="21"/>
+      <c r="F90" s="21">
+        <v>40000</v>
+      </c>
       <c r="G90" s="22"/>
       <c r="H90" s="23"/>
       <c r="I90" s="24"/>
       <c r="J90" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="29"/>
-    </row>
-    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>250000</v>
+      </c>
+      <c r="K90" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="19">
         <v>88</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20">
+        <v>150000</v>
+      </c>
       <c r="C91" s="18"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -2599,321 +3222,435 @@
       <c r="I91" s="24"/>
       <c r="J91" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="29"/>
-    </row>
-    <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150000</v>
+      </c>
+      <c r="K91" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="19">
         <v>89</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20">
+        <v>120000</v>
+      </c>
       <c r="C92" s="18"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
-      <c r="F92" s="21"/>
+      <c r="F92" s="21">
+        <v>10000</v>
+      </c>
       <c r="G92" s="22"/>
       <c r="H92" s="23"/>
       <c r="I92" s="24"/>
       <c r="J92" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="29"/>
-    </row>
-    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>130000</v>
+      </c>
+      <c r="K92" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19">
         <v>90</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20">
+        <v>162500</v>
+      </c>
       <c r="C93" s="18"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
+      <c r="F93" s="21">
+        <v>37500</v>
+      </c>
       <c r="G93" s="22"/>
       <c r="H93" s="23"/>
       <c r="I93" s="24"/>
       <c r="J93" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="29"/>
-    </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>200000</v>
+      </c>
+      <c r="K93" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19">
         <v>91</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20">
+        <v>35000</v>
+      </c>
       <c r="C94" s="18"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
+      <c r="F94" s="21">
+        <v>5000</v>
+      </c>
       <c r="G94" s="22"/>
       <c r="H94" s="23"/>
       <c r="I94" s="24"/>
       <c r="J94" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="29"/>
-    </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40000</v>
+      </c>
+      <c r="K94" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="19">
         <v>92</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20">
+        <v>90000</v>
+      </c>
       <c r="C95" s="18"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
-      <c r="F95" s="21"/>
+      <c r="F95" s="21">
+        <v>10000</v>
+      </c>
       <c r="G95" s="22"/>
       <c r="H95" s="23"/>
       <c r="I95" s="24"/>
       <c r="J95" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="29"/>
-    </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100000</v>
+      </c>
+      <c r="K95" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="19">
         <v>93</v>
       </c>
-      <c r="B96" s="20"/>
+      <c r="B96" s="20">
+        <v>70000</v>
+      </c>
       <c r="C96" s="18"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
-      <c r="F96" s="21"/>
+      <c r="F96" s="21">
+        <v>10000</v>
+      </c>
       <c r="G96" s="22"/>
       <c r="H96" s="23"/>
       <c r="I96" s="24"/>
       <c r="J96" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="29"/>
+        <v>80000</v>
+      </c>
+      <c r="K96" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="19">
         <v>94</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20">
+        <v>90000</v>
+      </c>
       <c r="C97" s="18"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="22"/>
+      <c r="F97" s="21">
+        <v>30000</v>
+      </c>
+      <c r="G97" s="22">
+        <v>30000</v>
+      </c>
       <c r="H97" s="23"/>
       <c r="I97" s="24"/>
       <c r="J97" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K97" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="19">
         <v>95</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20">
+        <v>162500</v>
+      </c>
       <c r="C98" s="18"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="21"/>
-      <c r="G98" s="22"/>
+      <c r="G98" s="22">
+        <v>17500</v>
+      </c>
       <c r="H98" s="23"/>
       <c r="I98" s="24"/>
       <c r="J98" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="29"/>
+        <v>180000</v>
+      </c>
+      <c r="K98" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="19">
         <v>96</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="20">
+        <v>97500</v>
+      </c>
       <c r="C99" s="18"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="22"/>
+      <c r="F99" s="21">
+        <v>22500</v>
+      </c>
+      <c r="G99" s="22">
+        <v>30000</v>
+      </c>
       <c r="H99" s="23"/>
       <c r="I99" s="24"/>
       <c r="J99" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K99" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19">
         <v>97</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="20">
+        <v>120000</v>
+      </c>
       <c r="C100" s="18"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
+      <c r="F100" s="21">
+        <v>50000</v>
+      </c>
       <c r="G100" s="22"/>
       <c r="H100" s="23"/>
       <c r="I100" s="24"/>
       <c r="J100" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="29"/>
+        <v>170000</v>
+      </c>
+      <c r="K100" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19">
         <v>98</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20">
+        <v>70000</v>
+      </c>
       <c r="C101" s="18"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
-      <c r="F101" s="21"/>
+      <c r="F101" s="21">
+        <v>100000</v>
+      </c>
       <c r="G101" s="22"/>
       <c r="H101" s="23"/>
-      <c r="I101" s="24"/>
+      <c r="I101" s="24">
+        <v>30000</v>
+      </c>
       <c r="J101" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K101" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="19">
         <v>99</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="20">
+        <v>60000</v>
+      </c>
       <c r="C102" s="18"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="22"/>
+      <c r="F102" s="21">
+        <v>20000</v>
+      </c>
+      <c r="G102" s="22">
+        <v>20000</v>
+      </c>
       <c r="H102" s="23"/>
       <c r="I102" s="24"/>
       <c r="J102" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="29"/>
+        <v>100000</v>
+      </c>
+      <c r="K102" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19">
         <v>100</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="20">
+        <v>137500</v>
+      </c>
       <c r="C103" s="18"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
+      <c r="F103" s="21">
+        <v>32500</v>
+      </c>
       <c r="G103" s="22"/>
       <c r="H103" s="23"/>
       <c r="I103" s="24"/>
       <c r="J103" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="29"/>
+        <v>170000</v>
+      </c>
+      <c r="K103" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19">
         <v>101</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="20">
+        <v>140000</v>
+      </c>
       <c r="C104" s="18"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
+      <c r="F104" s="21">
+        <v>10000</v>
+      </c>
       <c r="G104" s="22"/>
       <c r="H104" s="23"/>
       <c r="I104" s="24"/>
       <c r="J104" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K104" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19">
         <v>102</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="20">
+        <v>97500</v>
+      </c>
       <c r="C105" s="18"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
-      <c r="F105" s="21"/>
+      <c r="F105" s="21">
+        <v>2500</v>
+      </c>
       <c r="G105" s="22"/>
       <c r="H105" s="23"/>
       <c r="I105" s="24"/>
       <c r="J105" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K105" s="29"/>
+        <v>100000</v>
+      </c>
+      <c r="K105" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19">
         <v>103</v>
       </c>
-      <c r="B106" s="20"/>
+      <c r="B106" s="20">
+        <v>120000</v>
+      </c>
       <c r="C106" s="18"/>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
+      <c r="F106" s="21">
+        <v>30000</v>
+      </c>
       <c r="G106" s="22"/>
       <c r="H106" s="23"/>
       <c r="I106" s="24"/>
       <c r="J106" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K106" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19">
         <v>104</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="18"/>
+      <c r="C107" s="18">
+        <v>10</v>
+      </c>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="21"/>
-      <c r="G107" s="22"/>
+      <c r="G107" s="22">
+        <v>80000</v>
+      </c>
       <c r="H107" s="23"/>
       <c r="I107" s="24"/>
       <c r="J107" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="29"/>
+        <f>SUM(D107:I107)</f>
+        <v>80000</v>
+      </c>
+      <c r="K107" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19">
         <v>105</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="20">
+        <v>30000</v>
+      </c>
       <c r="C108" s="18"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
-      <c r="F108" s="21"/>
+      <c r="F108" s="21">
+        <v>20000</v>
+      </c>
       <c r="G108" s="22"/>
       <c r="H108" s="23"/>
       <c r="I108" s="24"/>
       <c r="J108" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="29"/>
+        <v>50000</v>
+      </c>
+      <c r="K108" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19">
         <v>106</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="20">
+        <v>35000</v>
+      </c>
       <c r="C109" s="18"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
@@ -2923,69 +3660,91 @@
       <c r="I109" s="24"/>
       <c r="J109" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="29"/>
+        <v>35000</v>
+      </c>
+      <c r="K109" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19">
         <v>107</v>
       </c>
-      <c r="B110" s="20"/>
+      <c r="B110" s="20">
+        <v>200000</v>
+      </c>
       <c r="C110" s="18"/>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
+      <c r="G110" s="22">
+        <v>50000</v>
+      </c>
       <c r="H110" s="23"/>
       <c r="I110" s="24"/>
       <c r="J110" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="29"/>
+        <v>250000</v>
+      </c>
+      <c r="K110" s="29">
+        <v>8</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19">
         <v>108</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="20">
+        <v>120000</v>
+      </c>
       <c r="C111" s="18"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
-      <c r="F111" s="21"/>
+      <c r="F111" s="21">
+        <v>30000</v>
+      </c>
       <c r="G111" s="22"/>
       <c r="H111" s="23"/>
       <c r="I111" s="24"/>
       <c r="J111" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K111" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="19">
         <v>109</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="20">
+        <v>125000</v>
+      </c>
       <c r="C112" s="18"/>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
-      <c r="F112" s="21"/>
+      <c r="F112" s="21">
+        <v>5000</v>
+      </c>
       <c r="G112" s="22"/>
       <c r="H112" s="23"/>
       <c r="I112" s="24"/>
       <c r="J112" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="29"/>
+        <v>130000</v>
+      </c>
+      <c r="K112" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="19">
         <v>110</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="20">
+        <v>120000</v>
+      </c>
       <c r="C113" s="18"/>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -2995,141 +3754,191 @@
       <c r="I113" s="24"/>
       <c r="J113" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="29"/>
+        <v>120000</v>
+      </c>
+      <c r="K113" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19">
         <v>111</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="20">
+        <v>162500</v>
+      </c>
       <c r="C114" s="18"/>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
-      <c r="F114" s="21"/>
+      <c r="F114" s="21">
+        <v>37500</v>
+      </c>
       <c r="G114" s="22"/>
       <c r="H114" s="23"/>
       <c r="I114" s="24"/>
       <c r="J114" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K114" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="19">
         <v>112</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="20">
+        <v>120000</v>
+      </c>
       <c r="C115" s="18"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
-      <c r="F115" s="21"/>
+      <c r="F115" s="21">
+        <v>80000</v>
+      </c>
       <c r="G115" s="22"/>
       <c r="H115" s="23"/>
       <c r="I115" s="24"/>
       <c r="J115" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K115" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="19">
         <v>113</v>
       </c>
-      <c r="B116" s="20"/>
+      <c r="B116" s="20">
+        <v>210000</v>
+      </c>
       <c r="C116" s="18"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
-      <c r="F116" s="21"/>
+      <c r="F116" s="21">
+        <v>40000</v>
+      </c>
       <c r="G116" s="22"/>
       <c r="H116" s="23"/>
-      <c r="I116" s="24"/>
+      <c r="I116" s="24">
+        <v>105000</v>
+      </c>
       <c r="J116" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="29"/>
+        <v>355000</v>
+      </c>
+      <c r="K116" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="19">
         <v>114</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="20">
+        <v>140000</v>
+      </c>
       <c r="C117" s="18"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
-      <c r="F117" s="21"/>
+      <c r="F117" s="21">
+        <v>10000</v>
+      </c>
       <c r="G117" s="22"/>
       <c r="H117" s="23"/>
-      <c r="I117" s="24"/>
+      <c r="I117" s="24">
+        <v>50000</v>
+      </c>
       <c r="J117" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="29"/>
+        <v>200000</v>
+      </c>
+      <c r="K117" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="19">
         <v>115</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="20">
+        <v>90000</v>
+      </c>
       <c r="C118" s="18"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
+      <c r="F118" s="21">
+        <v>10000</v>
+      </c>
       <c r="G118" s="22"/>
       <c r="H118" s="23"/>
       <c r="I118" s="24"/>
       <c r="J118" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="29"/>
+        <v>100000</v>
+      </c>
+      <c r="K118" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="19">
         <v>116</v>
       </c>
-      <c r="B119" s="20"/>
+      <c r="B119" s="20">
+        <v>140000</v>
+      </c>
       <c r="C119" s="18"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
-      <c r="F119" s="21"/>
+      <c r="F119" s="21">
+        <v>10000</v>
+      </c>
       <c r="G119" s="22"/>
       <c r="H119" s="23"/>
       <c r="I119" s="24"/>
       <c r="J119" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="29"/>
+        <v>150000</v>
+      </c>
+      <c r="K119" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="19">
         <v>117</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="20">
+        <v>195000</v>
+      </c>
       <c r="C120" s="18"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="21"/>
-      <c r="G120" s="22"/>
+      <c r="G120" s="22">
+        <v>50000</v>
+      </c>
       <c r="H120" s="23"/>
       <c r="I120" s="24"/>
       <c r="J120" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="29"/>
+        <v>245000</v>
+      </c>
+      <c r="K120" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="19">
         <v>118</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="20">
+        <v>105000</v>
+      </c>
       <c r="C121" s="18"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -3139,9 +3948,11 @@
       <c r="I121" s="24"/>
       <c r="J121" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K121" s="29"/>
+        <v>105000</v>
+      </c>
+      <c r="K121" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="19">
@@ -3671,27 +4482,27 @@
       </c>
       <c r="B151" s="33">
         <f>SUM(B4:B150)</f>
-        <v>4772500</v>
+        <v>14170000</v>
       </c>
       <c r="C151" s="31">
         <f t="shared" ref="C151:J151" si="5">SUM(C4:C150)</f>
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D151" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E151" s="39">
+      <c r="E151" s="33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="F151" s="34">
         <f t="shared" si="5"/>
-        <v>877500</v>
+        <v>2830000</v>
       </c>
       <c r="G151" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="H151" s="35">
         <f t="shared" si="5"/>
@@ -3699,15 +4510,15 @@
       </c>
       <c r="I151" s="36">
         <f t="shared" si="5"/>
-        <v>275000</v>
+        <v>610000</v>
       </c>
       <c r="J151" s="37">
         <f t="shared" si="5"/>
-        <v>6825010</v>
+        <v>19450000</v>
       </c>
       <c r="K151" s="32">
         <f>SUM(K4:K150)</f>
-        <v>142</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -4350,7 +5161,7 @@
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K1048576" s="1">
         <f>SUM(K4:K1048575)</f>
-        <v>284</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -4370,4 +5181,882 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46">
+        <v>1</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46">
+        <v>2</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46">
+        <v>3</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="46">
+        <v>4</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46">
+        <v>5</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="46">
+        <v>6</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46">
+        <v>7</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="46">
+        <v>8</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="46">
+        <v>9</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="46">
+        <v>10</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="46">
+        <v>11</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="46">
+        <v>12</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="46">
+        <v>13</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="46">
+        <v>14</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="46">
+        <v>15</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="46">
+        <v>16</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="46">
+        <v>17</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="46">
+        <v>18</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="46">
+        <v>19</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="46">
+        <v>20</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="46">
+        <v>21</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="46">
+        <v>22</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="46">
+        <v>23</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="46">
+        <v>24</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="46">
+        <v>25</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="46">
+        <v>26</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="46">
+        <v>27</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="46">
+        <v>28</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="46">
+        <v>29</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="46">
+        <v>30</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="46">
+        <v>31</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="46">
+        <v>32</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="46">
+        <v>33</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="46">
+        <v>34</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="46">
+        <v>35</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="46">
+        <v>36</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="46">
+        <v>37</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="46">
+        <v>38</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="46">
+        <v>39</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="46">
+        <v>40</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="46">
+        <v>41</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="46">
+        <v>42</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="46">
+        <v>43</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="46">
+        <v>44</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="46">
+        <v>45</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="46">
+        <v>46</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="46">
+        <v>47</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="46">
+        <v>48</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="46">
+        <v>49</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="46">
+        <v>50</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="46">
+        <v>51</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="46">
+        <v>52</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="46">
+        <v>53</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="46">
+        <v>54</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="46">
+        <v>55</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>